--- a/playerData.xlsx
+++ b/playerData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>First Name</t>
   </si>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>📩Write here..lkjgtds</t>
+  </si>
+  <si>
+    <t>yamam</t>
+  </si>
+  <si>
+    <t>Alkhamesi</t>
+  </si>
+  <si>
+    <t>yamamalkhamesi@gmail.com</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">📩Write here.. </t>
+  </si>
+  <si>
+    <t>yamamhhhhhhhhhhh</t>
   </si>
   <si>
     <t>yamammmm</t>
@@ -486,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -587,71 +608,123 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>565340560</v>
+        <v>565340569</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>565340569</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6">
-        <v>565340569</v>
+        <v>565340560</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>565340569</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>565340569</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
